--- a/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 15,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,27 +764,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,0</t>
+          <t>2,69; 15,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>297,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,64%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 25,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,53; 4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 1,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,47; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>297,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 25,32</t>
+          <t>-8,71; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 1,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,47; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 0,0</t>
+          <t>-14,08; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 0,0</t>
+          <t>-12,09; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 15,54</t>
+          <t>2,71; 16,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,14</t>
+          <t>-3,79; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 25,32</t>
+          <t>1,26; 24,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 4,54</t>
+          <t>-6,62; 4,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 1,57</t>
+          <t>-14,01; 1,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,47; —</t>
+          <t>-32,05; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,0</t>
+          <t>-7,8; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,17</t>
+          <t>0,28; 6,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,0</t>
+          <t>-2,56; 1,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 1,44</t>
+          <t>-2,42; 1,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 1034,65</t>
+          <t>-17,89; 1221,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,03; 267,22</t>
+          <t>-81,96; 220,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 0,0</t>
+          <t>-14,01; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 0,0</t>
+          <t>-10,94; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,18</t>
+          <t>0,0; 14,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 16,04</t>
+          <t>2,62; 15,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 8,43</t>
+          <t>-3,79; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 24,77</t>
+          <t>0,25; 23,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,79</t>
+          <t>-6,21; 5,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 1,54</t>
+          <t>-14,45; 1,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,05; —</t>
+          <t>-35,84; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,0</t>
+          <t>-8,01; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,97</t>
+          <t>0,25; 7,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,93</t>
+          <t>-3,05; 1,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,61</t>
+          <t>-2,56; 1,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 1221,68</t>
+          <t>-18,98; 1020,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,96; 220,18</t>
+          <t>-83,76; 277,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP16A10-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>63,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 0,0</t>
+          <t>2,69; 15,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 0,0</t>
+          <t>-3,81; 7,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>11,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>297,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,64%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,52</t>
+          <t>1,8; 25,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 8,21</t>
+          <t>-6,53; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,47; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>297,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-71,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 23,85</t>
+          <t>-8,71; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 5,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,84; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>187,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,14%</t>
         </is>
       </c>
     </row>
@@ -962,27 +962,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 0,0</t>
+          <t>0,23; 7,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 2,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,0; 1034,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,03; 267,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -992,94 +992,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>187,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-17,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-22,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 7,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 1,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 1,36</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; 1020,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-83,76; 277,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
